--- a/templates/t-bus.xlsx
+++ b/templates/t-bus.xlsx
@@ -1806,7 +1806,7 @@
     <row r="10" s="99">
       <c r="B10" s="123" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.11.11.1111-C от 11 Ноября 1111 г.</t>
+          <t>Счет на оплату № 1.09.07.2024-C от 9        Июля 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="G16" s="128" t="inlineStr">
         <is>
-          <t>Лвлв вввввв</t>
+          <t>qqqqqqqqqq</t>
         </is>
       </c>
       <c r="AR16" s="100" t="n"/>
@@ -1976,7 +1976,7 @@
     <row r="17" customFormat="1" s="98">
       <c r="G17" s="129" t="inlineStr">
         <is>
-          <t>ИНН 1111</t>
+          <t>ИНН 9999999999999</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="G19" s="131" t="inlineStr">
         <is>
-          <t>Договор № 1.01/11/21 от 01 Ноября 2021 г.</t>
+          <t>Договор № 1.12/04/22 от 12        Декабря 2004 г.</t>
         </is>
       </c>
       <c r="AR19" s="100" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="C22" s="138" t="n"/>
       <c r="D22" s="139" t="inlineStr">
         <is>
-          <t>Овта вввввв</t>
+          <t>sdgsddg</t>
         </is>
       </c>
       <c r="E22" s="140" t="n"/>
@@ -2158,15 +2158,19 @@
       </c>
       <c r="AD22" s="140" t="n"/>
       <c r="AE22" s="138" t="n"/>
-      <c r="AF22" s="143" t="n">
-        <v>11111.11</v>
+      <c r="AF22" s="143" t="inlineStr">
+        <is>
+          <t>34 535.00 ₽</t>
+        </is>
       </c>
       <c r="AG22" s="140" t="n"/>
       <c r="AH22" s="140" t="n"/>
       <c r="AI22" s="140" t="n"/>
       <c r="AJ22" s="138" t="n"/>
-      <c r="AK22" s="144" t="n">
-        <v>11111.11</v>
+      <c r="AK22" s="144" t="inlineStr">
+        <is>
+          <t>34 535.00 ₽</t>
+        </is>
       </c>
       <c r="AL22" s="140" t="n"/>
       <c r="AM22" s="140" t="n"/>
@@ -2235,8 +2239,10 @@
         </is>
       </c>
       <c r="AK26" s="131" t="n"/>
-      <c r="AL26" s="149" t="n">
-        <v>11111.11</v>
+      <c r="AL26" s="149" t="inlineStr">
+        <is>
+          <t>34 535.00 ₽</t>
+        </is>
       </c>
       <c r="AR26" s="100" t="n"/>
     </row>
@@ -2256,7 +2262,7 @@
     <row r="29" ht="12" customHeight="1" s="99">
       <c r="B29" s="150" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 11 111,11 руб.</t>
+          <t>Всего наименований 1, на сумму 34 535,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="100" t="n"/>
@@ -2264,7 +2270,7 @@
     <row r="30" s="99">
       <c r="B30" s="151" t="inlineStr">
         <is>
-          <t>Одинадцать тысяч сто одинадцать рублей 11 копеек</t>
+          <t>Тридцать четыре тысячи пятьсот тридцать пять рублей 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="100" t="n"/>

--- a/templates/t-bus.xlsx
+++ b/templates/t-bus.xlsx
@@ -1806,7 +1806,7 @@
     <row r="10" s="99">
       <c r="B10" s="123" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.09.07.2024-C от 9        Июля 2024 г.</t>
+          <t>Счет на оплату № 1.27.10.2024-C от 27 Октября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="G16" s="128" t="inlineStr">
         <is>
-          <t>qqqqqqqqqq</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="AR16" s="100" t="n"/>
@@ -1976,7 +1976,7 @@
     <row r="17" customFormat="1" s="98">
       <c r="G17" s="129" t="inlineStr">
         <is>
-          <t>ИНН 9999999999999</t>
+          <t>ИНН 213</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="G19" s="131" t="inlineStr">
         <is>
-          <t>Договор № 1.12/04/22 от 12        Декабря 2004 г.</t>
+          <t>Договор № 1.12/12/12 от 12 Декабря 2012 г.</t>
         </is>
       </c>
       <c r="AR19" s="100" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="C22" s="138" t="n"/>
       <c r="D22" s="139" t="inlineStr">
         <is>
-          <t>sdgsddg</t>
+          <t>wqe</t>
         </is>
       </c>
       <c r="E22" s="140" t="n"/>
@@ -2160,7 +2160,7 @@
       <c r="AE22" s="138" t="n"/>
       <c r="AF22" s="143" t="inlineStr">
         <is>
-          <t>34 535.00 ₽</t>
+          <t>123.00 ₽</t>
         </is>
       </c>
       <c r="AG22" s="140" t="n"/>
@@ -2169,7 +2169,7 @@
       <c r="AJ22" s="138" t="n"/>
       <c r="AK22" s="144" t="inlineStr">
         <is>
-          <t>34 535.00 ₽</t>
+          <t>123.00 ₽</t>
         </is>
       </c>
       <c r="AL22" s="140" t="n"/>
@@ -2241,7 +2241,7 @@
       <c r="AK26" s="131" t="n"/>
       <c r="AL26" s="149" t="inlineStr">
         <is>
-          <t>34 535.00 ₽</t>
+          <t>123.00 ₽</t>
         </is>
       </c>
       <c r="AR26" s="100" t="n"/>
@@ -2262,7 +2262,7 @@
     <row r="29" ht="12" customHeight="1" s="99">
       <c r="B29" s="150" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 34 535,00 руб.</t>
+          <t>Всего наименований 1, на сумму 123,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="100" t="n"/>
@@ -2270,7 +2270,7 @@
     <row r="30" s="99">
       <c r="B30" s="151" t="inlineStr">
         <is>
-          <t>Тридцать четыре тысячи пятьсот тридцать пять рублей 00 копеек</t>
+          <t>Сто двадцать три рубля 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="100" t="n"/>
